--- a/VerveStacks_ESP/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_ESP/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A3383-44C7-4267-B4D0-BDA344D8B986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43164DDE-3D4C-4D65-8DF7-8AA7F09B088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2481,10 +2481,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S4b1002h15,S4b1003h13,S4b1004h07,S4b1005h16,S4b1006h09,S4c1008h15,S4c1009h11,S4c1009h17,S4c1012h07,S4c1012h09,S4c1013h09,S4c1013h12,S4c1013h14,S4aH5,S4b1004h16,S4b1006h12,S4c1009h12,S4c1010h11,S4c1011h10,S4c1012h17,S4c1014h14,S1aH3,S4b1002h14,S4b1003h15,S4b1004h08,S4b1005h15,S4b1005h18,S4b1007h15,S4b1007h16,S4c1010h08,S4c1011h09,S4c1014h18,S3aH2,S4b1001h11,S4b1002h17,S4b1007h07,S4c1008h09,S4c1008h17,S4c1009h10,S4c1010h09,S4c1010h10,S4c1012h16,S4c1013h17,S4c1013h18,S4b1001h09,S4b1002h11,S4b1003h09,S4b1004h11,S4b1004h13,S4b1005h07,S4b1006h08,S4b1006h16,S4b1007h11,S4b1007h13,S4b1007h14,S4c1008h14,S4c1010h14,S4c1012h14,S4c1013h11,S4c1014h09,S3aH3,S4b1003h07,S4b1003h11,S4b1004h17,S4b1006h14,S4b1007h08,S4c1008h07,S4c1013h07,S4c1014h13,S4b1003h16,S4b1004h14,S4b1006h11,S4b1006h15,S4c1010h15,S4c1010h18,S4c1012h18,S5aH4,S4b1005h14,S4c1008h10,S4c1011h18,S4c1012h15,S4c1014h15,S4c1014h16,S3aH5,S4b1001h07,S4b1002h07,S4b1003h08,S4b1003h12,S4b1003h14,S4b1004h10,S4b1004h12,S4b1005h08,S4c1010h07,S4c1012h08,S4c1012h10,S5aH3,S1aH2,S2aH3,S4b1002h16,S4b1004h15,S4b1005h11,S4b1006h18,S4c1009h13,S4c1014h12,S1aH4,S2aH2,S4b1002h09,S4b1002h10,S4b1002h18,S4b1004h18,S4b1005h09,S4b1006h17,S4b1007h12,S4c1009h09,S4c1011h15,S4c1011h16,S4c1012h13,S4c1013h10,S4c1014h07,S4c1014h11,S4b1002h12,S4b1002h13,S4b1005h13,S4b1005h17,S4b1007h09,S4c1010h12,S4c1010h16,S4c1011h11,S4c1011h17,S4c1012h12,S4c1014h10,S3aH4,S4aH3,S4aH4,S4b1001h12,S4b1003h10,S4b1003h18,S4b1006h10,S4c1008h16,S4c1009h08,S4c1012h11,S4c1013h13,S1aH5,S2aH4,S2aH5,S4b1001h08,S4b1001h14,S4b1001h15,S4b1004h09,S4b1006h13,S4c1008h08,S4c1009h15,S4c1010h13,S4c1011h08,S4c1013h08,S4c1014h08,S4c1014h17,S5aH2,S5aH5,S4b1001h10,S4b1001h16,S4b1001h17,S4b1005h12,S4b1007h17,S4b1007h18,S4c1008h11,S4c1008h12,S4c1008h18,S4c1009h14,S4c1009h16,S4c1009h18,S4c1011h07,S4c1011h13,S4c1011h14,S4c1013h15,S4c1013h16,S4b1001h13,S4b1001h18,S4b1002h08,S4b1003h17,S4b1005h10,S4b1006h07,S4b1007h10,S4c1008h13,S4c1009h07,S4c1010h17,S4c1011h12</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH7,S4b1001h20,S4b1002h20,S4b1002h24,S4b1003h01,S4b1006h24,S4b1007h02,S4b1007h05,S4b1007h19,S4c1008h21,S4c1009h03,S4c1009h20,S4c1009h23,S4c1009h24,S4c1012h23,S4c1013h05,S4c1014h06,S5aH8,S4b1003h19,S4b1005h01,S4b1005h24,S4b1006h05,S4b1006h19,S4b1007h01,S4c1008h22,S4c1013h02,S1aH7,S3aH6,S4aH7,S4b1002h03,S4b1006h04,S4b1007h20,S5aH6,S5aH7,S3aH8,S4b1005h03,S4b1005h21,S4b1005h22,S4c1008h04,S4c1010h04,S4c1010h06,S4c1010h19,S4c1011h19,S4c1011h22,S4c1011h24,S4c1012h20,S4c1014h23,S2aH8,S4b1001h21,S4b1006h02,S4b1007h22,S4c1010h01,S4c1010h02,S4c1011h01,S4c1011h06,S4c1013h03,S4c1014h01,S4c1014h24,S4aH6,S4b1001h04,S4b1001h06,S4b1002h04,S4b1002h05,S4b1004h01,S4b1004h23,S4c1008h24,S4c1009h06,S4c1010h05,S4c1010h24,S4c1011h02,S4c1014h05,S4b1001h23,S4b1003h21,S4b1004h22,S4c1009h19,S4c1009h21,S4c1011h04,S4c1011h05,S4b1002h02,S4b1004h04,S4b1005h23,S4c1010h03,S4c1010h23,S4c1012h24,S4c1013h06,S1aH8,S4b1002h01,S4b1002h23,S4b1003h06,S4b1003h20,S4b1003h22,S4b1004h03,S4b1004h05,S4b1007h04,S4c1008h05,S4c1011h23,S4c1012h06,S4c1014h02,S4c1014h04,S5aH1,S4b1001h01,S4b1002h06,S4b1002h22,S4b1003h03,S4b1004h06,S4b1004h19,S4b1004h20,S4b1005h20,S4b1006h06,S4b1006h23,S4c1008h23,S4c1010h20,S4c1011h21,S4c1014h03,S4aH1,S4b1001h05,S4b1001h24,S4b1005h05,S4b1005h06,S4b1005h19,S4b1006h01,S4b1006h21,S4c1009h04,S4c1010h22,S4c1012h02,S4c1012h03,S4c1012h22,S4c1013h23,S4c1013h24,S1aH1,S2aH7,S4b1001h02,S4b1001h03,S4b1002h21,S4b1004h21,S4b1007h24,S4c1008h01,S4c1008h02,S4c1011h03,S4c1012h05,S4c1012h19,S4c1013h22,S4c1014h20,S4c1014h21,S4b1004h24,S4b1006h20,S4b1006h22,S4c1010h21,S4c1011h20,S4c1012h01,S4c1012h21,S4c1014h22,S1aH6,S4b1003h02,S4b1004h02,S4b1007h06,S4c1008h06,S4c1008h20,S4c1009h05,S4c1012h04,S4c1013h21,S2aH6,S3aH1,S4b1001h22,S4b1003h24,S4b1005h02,S4c1008h19,S4c1009h01,S4c1009h02,S4aH8,S4b1001h19,S4b1002h19,S4b1003h04,S4b1003h05,S4b1003h23,S4b1005h04,S4b1006h03,S4b1007h03,S4b1007h21,S4b1007h23,S4c1008h03,S4c1009h22,S4c1013h01,S4c1013h04,S4c1013h19,S4c1013h20,S4c1014h19</t>
+    <t>S4aH2,S4b1002h15,S4b1003h13,S4b1004h07,S4b1005h16,S4b1006h09,S4c1008h15,S4c1009h11,S4c1009h17,S4c1012h07,S4c1012h09,S4c1013h09,S4c1013h12,S4c1013h14,S3aH3,S4b1003h07,S4b1003h11,S4b1004h17,S4b1006h14,S4b1007h08,S4c1008h07,S4c1013h07,S4c1014h13,S4b1001h13,S4b1001h18,S4b1002h08,S4b1003h17,S4b1005h10,S4b1006h07,S4b1007h10,S4c1008h13,S4c1009h07,S4c1010h17,S4c1011h12,S1aH5,S2aH4,S2aH5,S4b1001h08,S4b1001h14,S4b1001h15,S4b1004h09,S4b1006h13,S4c1008h08,S4c1009h15,S4c1010h13,S4c1011h08,S4c1013h08,S4c1014h08,S4c1014h17,S5aH2,S5aH5,S4b1002h12,S4b1002h13,S4b1005h13,S4b1005h17,S4b1007h09,S4c1010h12,S4c1010h16,S4c1011h11,S4c1011h17,S4c1012h12,S4c1014h10,S4b1001h10,S4b1001h16,S4b1001h17,S4b1005h12,S4b1007h17,S4b1007h18,S4c1008h11,S4c1008h12,S4c1008h18,S4c1009h14,S4c1009h16,S4c1009h18,S4c1011h07,S4c1011h13,S4c1011h14,S4c1013h15,S4c1013h16,S1aH3,S4b1002h14,S4b1003h15,S4b1004h08,S4b1005h15,S4b1005h18,S4b1007h15,S4b1007h16,S4c1010h08,S4c1011h09,S4c1014h18,S4b1001h09,S4b1002h11,S4b1003h09,S4b1004h11,S4b1004h13,S4b1005h07,S4b1006h08,S4b1006h16,S4b1007h11,S4b1007h13,S4b1007h14,S4c1008h14,S4c1010h14,S4c1012h14,S4c1013h11,S4c1014h09,S1aH2,S2aH3,S4b1002h16,S4b1004h15,S4b1005h11,S4b1006h18,S4c1009h13,S4c1014h12,S3aH2,S4b1001h11,S4b1002h17,S4b1007h07,S4c1008h09,S4c1008h17,S4c1009h10,S4c1010h09,S4c1010h10,S4c1012h16,S4c1013h17,S4c1013h18,S1aH4,S2aH2,S4b1002h09,S4b1002h10,S4b1002h18,S4b1004h18,S4b1005h09,S4b1006h17,S4b1007h12,S4c1009h09,S4c1011h15,S4c1011h16,S4c1012h13,S4c1013h10,S4c1014h07,S4c1014h11,S4aH5,S4b1004h16,S4b1006h12,S4c1009h12,S4c1010h11,S4c1011h10,S4c1012h17,S4c1014h14,S4b1005h14,S4c1008h10,S4c1011h18,S4c1012h15,S4c1014h15,S4c1014h16,S4b1003h16,S4b1004h14,S4b1006h11,S4b1006h15,S4c1010h15,S4c1010h18,S4c1012h18,S5aH4,S3aH5,S4b1001h07,S4b1002h07,S4b1003h08,S4b1003h12,S4b1003h14,S4b1004h10,S4b1004h12,S4b1005h08,S4c1010h07,S4c1012h08,S4c1012h10,S5aH3,S3aH4,S4aH3,S4aH4,S4b1001h12,S4b1003h10,S4b1003h18,S4b1006h10,S4c1008h16,S4c1009h08,S4c1012h11,S4c1013h13</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S4b1001h20,S4b1002h20,S4b1002h24,S4b1003h01,S4b1006h24,S4b1007h02,S4b1007h05,S4b1007h19,S4c1008h21,S4c1009h03,S4c1009h20,S4c1009h23,S4c1009h24,S4c1012h23,S4c1013h05,S4c1014h06,S5aH8,S4aH6,S4b1001h04,S4b1001h06,S4b1002h04,S4b1002h05,S4b1004h01,S4b1004h23,S4c1008h24,S4c1009h06,S4c1010h05,S4c1010h24,S4c1011h02,S4c1014h05,S4aH8,S4b1001h19,S4b1002h19,S4b1003h04,S4b1003h05,S4b1003h23,S4b1005h04,S4b1006h03,S4b1007h03,S4b1007h21,S4b1007h23,S4c1008h03,S4c1009h22,S4c1013h01,S4c1013h04,S4c1013h19,S4c1013h20,S4c1014h19,S1aH6,S4b1003h02,S4b1004h02,S4b1007h06,S4c1008h06,S4c1008h20,S4c1009h05,S4c1012h04,S4c1013h21,S1aH1,S2aH7,S4b1001h02,S4b1001h03,S4b1002h21,S4b1004h21,S4b1007h24,S4c1008h01,S4c1008h02,S4c1011h03,S4c1012h05,S4c1012h19,S4c1013h22,S4c1014h20,S4c1014h21,S2aH6,S3aH1,S4b1001h22,S4b1003h24,S4b1005h02,S4c1008h19,S4c1009h01,S4c1009h02,S1aH7,S3aH6,S4aH7,S4b1002h03,S4b1006h04,S4b1007h20,S5aH6,S5aH7,S2aH8,S4b1001h21,S4b1006h02,S4b1007h22,S4c1010h01,S4c1010h02,S4c1011h01,S4c1011h06,S4c1013h03,S4c1014h01,S4c1014h24,S4b1001h01,S4b1002h06,S4b1002h22,S4b1003h03,S4b1004h06,S4b1004h19,S4b1004h20,S4b1005h20,S4b1006h06,S4b1006h23,S4c1008h23,S4c1010h20,S4c1011h21,S4c1014h03,S3aH8,S4b1005h03,S4b1005h21,S4b1005h22,S4c1008h04,S4c1010h04,S4c1010h06,S4c1010h19,S4c1011h19,S4c1011h22,S4c1011h24,S4c1012h20,S4c1014h23,S4aH1,S4b1001h05,S4b1001h24,S4b1005h05,S4b1005h06,S4b1005h19,S4b1006h01,S4b1006h21,S4c1009h04,S4c1010h22,S4c1012h02,S4c1012h03,S4c1012h22,S4c1013h23,S4c1013h24,S4b1003h19,S4b1005h01,S4b1005h24,S4b1006h05,S4b1006h19,S4b1007h01,S4c1008h22,S4c1013h02,S4b1002h02,S4b1004h04,S4b1005h23,S4c1010h03,S4c1010h23,S4c1012h24,S4c1013h06,S4b1001h23,S4b1003h21,S4b1004h22,S4c1009h19,S4c1009h21,S4c1011h04,S4c1011h05,S1aH8,S4b1002h01,S4b1002h23,S4b1003h06,S4b1003h20,S4b1003h22,S4b1004h03,S4b1004h05,S4b1007h04,S4c1008h05,S4c1011h23,S4c1012h06,S4c1014h02,S4c1014h04,S5aH1,S4b1004h24,S4b1006h20,S4b1006h22,S4c1010h21,S4c1011h20,S4c1012h01,S4c1012h21,S4c1014h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH7,S4b1001h20,S4b1002h20,S4b1002h24,S4b1003h01,S4b1006h24,S4b1007h02,S4b1007h05,S4b1007h19,S4c1008h21,S4c1009h03,S4c1009h20,S4c1009h23,S4c1009h24,S4c1012h23,S4c1013h05,S4c1014h06,S5aH8,S4b1003h19,S4b1005h01,S4b1005h24,S4b1006h05,S4b1006h19,S4b1007h01,S4c1008h22,S4c1013h02,S1aH7,S3aH6,S4aH7,S4b1002h03,S4b1006h04,S4b1007h20,S5aH6,S5aH7,S3aH8,S4b1005h03,S4b1005h21,S4b1005h22,S4c1008h04,S4c1010h04,S4c1010h06,S4c1010h19,S4c1011h19,S4c1011h22,S4c1011h24,S4c1012h20,S4c1014h23,S2aH8,S4b1001h21,S4b1006h02,S4b1007h22,S4c1010h01,S4c1010h02,S4c1011h01,S4c1011h06,S4c1013h03,S4c1014h01,S4c1014h24,S4aH6,S4b1001h04,S4b1001h06,S4b1002h04,S4b1002h05,S4b1004h01,S4b1004h23,S4c1008h24,S4c1009h06,S4c1010h05,S4c1010h24,S4c1011h02,S4c1014h05,S4b1001h23,S4b1003h21,S4b1004h22,S4c1009h19,S4c1009h21,S4c1011h04,S4c1011h05,S4b1002h02,S4b1004h04,S4b1005h23,S4c1010h03,S4c1010h23,S4c1012h24,S4c1013h06,S1aH8,S4b1002h01,S4b1002h23,S4b1003h06,S4b1003h20,S4b1003h22,S4b1004h03,S4b1004h05,S4b1007h04,S4c1008h05,S4c1011h23,S4c1012h06,S4c1014h02,S4c1014h04,S5aH1,S4b1001h01,S4b1002h06,S4b1002h22,S4b1003h03,S4b1004h06,S4b1004h19,S4b1004h20,S4b1005h20,S4b1006h06,S4b1006h23,S4c1008h23,S4c1010h20,S4c1011h21,S4c1014h03,S4aH1,S4b1001h05,S4b1001h24,S4b1005h05,S4b1005h06,S4b1005h19,S4b1006h01,S4b1006h21,S4c1009h04,S4c1010h22,S4c1012h02,S4c1012h03,S4c1012h22,S4c1013h23,S4c1013h24,S1aH1,S2aH7,S4b1001h02,S4b1001h03,S4b1002h21,S4b1004h21,S4b1007h24,S4c1008h01,S4c1008h02,S4c1011h03,S4c1012h05,S4c1012h19,S4c1013h22,S4c1014h20,S4c1014h21,S4b1004h24,S4b1006h20,S4b1006h22,S4c1010h21,S4c1011h20,S4c1012h01,S4c1012h21,S4c1014h22,S1aH6,S4b1003h02,S4b1004h02,S4b1007h06,S4c1008h06,S4c1008h20,S4c1009h05,S4c1012h04,S4c1013h21,S2aH6,S3aH1,S4b1001h22,S4b1003h24,S4b1005h02,S4c1008h19,S4c1009h01,S4c1009h02,S4aH8,S4b1001h19,S4b1002h19,S4b1003h04,S4b1003h05,S4b1003h23,S4b1005h04,S4b1006h03,S4b1007h03,S4b1007h21,S4b1007h23,S4c1008h03,S4c1009h22,S4c1013h01,S4c1013h04,S4c1013h19,S4c1013h20,S4c1014h19</v>
+        <v>S2aH1,S3aH7,S4b1001h20,S4b1002h20,S4b1002h24,S4b1003h01,S4b1006h24,S4b1007h02,S4b1007h05,S4b1007h19,S4c1008h21,S4c1009h03,S4c1009h20,S4c1009h23,S4c1009h24,S4c1012h23,S4c1013h05,S4c1014h06,S5aH8,S4aH6,S4b1001h04,S4b1001h06,S4b1002h04,S4b1002h05,S4b1004h01,S4b1004h23,S4c1008h24,S4c1009h06,S4c1010h05,S4c1010h24,S4c1011h02,S4c1014h05,S4aH8,S4b1001h19,S4b1002h19,S4b1003h04,S4b1003h05,S4b1003h23,S4b1005h04,S4b1006h03,S4b1007h03,S4b1007h21,S4b1007h23,S4c1008h03,S4c1009h22,S4c1013h01,S4c1013h04,S4c1013h19,S4c1013h20,S4c1014h19,S1aH6,S4b1003h02,S4b1004h02,S4b1007h06,S4c1008h06,S4c1008h20,S4c1009h05,S4c1012h04,S4c1013h21,S1aH1,S2aH7,S4b1001h02,S4b1001h03,S4b1002h21,S4b1004h21,S4b1007h24,S4c1008h01,S4c1008h02,S4c1011h03,S4c1012h05,S4c1012h19,S4c1013h22,S4c1014h20,S4c1014h21,S2aH6,S3aH1,S4b1001h22,S4b1003h24,S4b1005h02,S4c1008h19,S4c1009h01,S4c1009h02,S1aH7,S3aH6,S4aH7,S4b1002h03,S4b1006h04,S4b1007h20,S5aH6,S5aH7,S2aH8,S4b1001h21,S4b1006h02,S4b1007h22,S4c1010h01,S4c1010h02,S4c1011h01,S4c1011h06,S4c1013h03,S4c1014h01,S4c1014h24,S4b1001h01,S4b1002h06,S4b1002h22,S4b1003h03,S4b1004h06,S4b1004h19,S4b1004h20,S4b1005h20,S4b1006h06,S4b1006h23,S4c1008h23,S4c1010h20,S4c1011h21,S4c1014h03,S3aH8,S4b1005h03,S4b1005h21,S4b1005h22,S4c1008h04,S4c1010h04,S4c1010h06,S4c1010h19,S4c1011h19,S4c1011h22,S4c1011h24,S4c1012h20,S4c1014h23,S4aH1,S4b1001h05,S4b1001h24,S4b1005h05,S4b1005h06,S4b1005h19,S4b1006h01,S4b1006h21,S4c1009h04,S4c1010h22,S4c1012h02,S4c1012h03,S4c1012h22,S4c1013h23,S4c1013h24,S4b1003h19,S4b1005h01,S4b1005h24,S4b1006h05,S4b1006h19,S4b1007h01,S4c1008h22,S4c1013h02,S4b1002h02,S4b1004h04,S4b1005h23,S4c1010h03,S4c1010h23,S4c1012h24,S4c1013h06,S4b1001h23,S4b1003h21,S4b1004h22,S4c1009h19,S4c1009h21,S4c1011h04,S4c1011h05,S1aH8,S4b1002h01,S4b1002h23,S4b1003h06,S4b1003h20,S4b1003h22,S4b1004h03,S4b1004h05,S4b1007h04,S4c1008h05,S4c1011h23,S4c1012h06,S4c1014h02,S4c1014h04,S5aH1,S4b1004h24,S4b1006h20,S4b1006h22,S4c1010h21,S4c1011h20,S4c1012h01,S4c1012h21,S4c1014h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S4b1002h15,S4b1003h13,S4b1004h07,S4b1005h16,S4b1006h09,S4c1008h15,S4c1009h11,S4c1009h17,S4c1012h07,S4c1012h09,S4c1013h09,S4c1013h12,S4c1013h14,S4aH5,S4b1004h16,S4b1006h12,S4c1009h12,S4c1010h11,S4c1011h10,S4c1012h17,S4c1014h14,S1aH3,S4b1002h14,S4b1003h15,S4b1004h08,S4b1005h15,S4b1005h18,S4b1007h15,S4b1007h16,S4c1010h08,S4c1011h09,S4c1014h18,S3aH2,S4b1001h11,S4b1002h17,S4b1007h07,S4c1008h09,S4c1008h17,S4c1009h10,S4c1010h09,S4c1010h10,S4c1012h16,S4c1013h17,S4c1013h18,S4b1001h09,S4b1002h11,S4b1003h09,S4b1004h11,S4b1004h13,S4b1005h07,S4b1006h08,S4b1006h16,S4b1007h11,S4b1007h13,S4b1007h14,S4c1008h14,S4c1010h14,S4c1012h14,S4c1013h11,S4c1014h09,S3aH3,S4b1003h07,S4b1003h11,S4b1004h17,S4b1006h14,S4b1007h08,S4c1008h07,S4c1013h07,S4c1014h13,S4b1003h16,S4b1004h14,S4b1006h11,S4b1006h15,S4c1010h15,S4c1010h18,S4c1012h18,S5aH4,S4b1005h14,S4c1008h10,S4c1011h18,S4c1012h15,S4c1014h15,S4c1014h16,S3aH5,S4b1001h07,S4b1002h07,S4b1003h08,S4b1003h12,S4b1003h14,S4b1004h10,S4b1004h12,S4b1005h08,S4c1010h07,S4c1012h08,S4c1012h10,S5aH3,S1aH2,S2aH3,S4b1002h16,S4b1004h15,S4b1005h11,S4b1006h18,S4c1009h13,S4c1014h12,S1aH4,S2aH2,S4b1002h09,S4b1002h10,S4b1002h18,S4b1004h18,S4b1005h09,S4b1006h17,S4b1007h12,S4c1009h09,S4c1011h15,S4c1011h16,S4c1012h13,S4c1013h10,S4c1014h07,S4c1014h11,S4b1002h12,S4b1002h13,S4b1005h13,S4b1005h17,S4b1007h09,S4c1010h12,S4c1010h16,S4c1011h11,S4c1011h17,S4c1012h12,S4c1014h10,S3aH4,S4aH3,S4aH4,S4b1001h12,S4b1003h10,S4b1003h18,S4b1006h10,S4c1008h16,S4c1009h08,S4c1012h11,S4c1013h13,S1aH5,S2aH4,S2aH5,S4b1001h08,S4b1001h14,S4b1001h15,S4b1004h09,S4b1006h13,S4c1008h08,S4c1009h15,S4c1010h13,S4c1011h08,S4c1013h08,S4c1014h08,S4c1014h17,S5aH2,S5aH5,S4b1001h10,S4b1001h16,S4b1001h17,S4b1005h12,S4b1007h17,S4b1007h18,S4c1008h11,S4c1008h12,S4c1008h18,S4c1009h14,S4c1009h16,S4c1009h18,S4c1011h07,S4c1011h13,S4c1011h14,S4c1013h15,S4c1013h16,S4b1001h13,S4b1001h18,S4b1002h08,S4b1003h17,S4b1005h10,S4b1006h07,S4b1007h10,S4c1008h13,S4c1009h07,S4c1010h17,S4c1011h12</v>
+        <v>S4aH2,S4b1002h15,S4b1003h13,S4b1004h07,S4b1005h16,S4b1006h09,S4c1008h15,S4c1009h11,S4c1009h17,S4c1012h07,S4c1012h09,S4c1013h09,S4c1013h12,S4c1013h14,S3aH3,S4b1003h07,S4b1003h11,S4b1004h17,S4b1006h14,S4b1007h08,S4c1008h07,S4c1013h07,S4c1014h13,S4b1001h13,S4b1001h18,S4b1002h08,S4b1003h17,S4b1005h10,S4b1006h07,S4b1007h10,S4c1008h13,S4c1009h07,S4c1010h17,S4c1011h12,S1aH5,S2aH4,S2aH5,S4b1001h08,S4b1001h14,S4b1001h15,S4b1004h09,S4b1006h13,S4c1008h08,S4c1009h15,S4c1010h13,S4c1011h08,S4c1013h08,S4c1014h08,S4c1014h17,S5aH2,S5aH5,S4b1002h12,S4b1002h13,S4b1005h13,S4b1005h17,S4b1007h09,S4c1010h12,S4c1010h16,S4c1011h11,S4c1011h17,S4c1012h12,S4c1014h10,S4b1001h10,S4b1001h16,S4b1001h17,S4b1005h12,S4b1007h17,S4b1007h18,S4c1008h11,S4c1008h12,S4c1008h18,S4c1009h14,S4c1009h16,S4c1009h18,S4c1011h07,S4c1011h13,S4c1011h14,S4c1013h15,S4c1013h16,S1aH3,S4b1002h14,S4b1003h15,S4b1004h08,S4b1005h15,S4b1005h18,S4b1007h15,S4b1007h16,S4c1010h08,S4c1011h09,S4c1014h18,S4b1001h09,S4b1002h11,S4b1003h09,S4b1004h11,S4b1004h13,S4b1005h07,S4b1006h08,S4b1006h16,S4b1007h11,S4b1007h13,S4b1007h14,S4c1008h14,S4c1010h14,S4c1012h14,S4c1013h11,S4c1014h09,S1aH2,S2aH3,S4b1002h16,S4b1004h15,S4b1005h11,S4b1006h18,S4c1009h13,S4c1014h12,S3aH2,S4b1001h11,S4b1002h17,S4b1007h07,S4c1008h09,S4c1008h17,S4c1009h10,S4c1010h09,S4c1010h10,S4c1012h16,S4c1013h17,S4c1013h18,S1aH4,S2aH2,S4b1002h09,S4b1002h10,S4b1002h18,S4b1004h18,S4b1005h09,S4b1006h17,S4b1007h12,S4c1009h09,S4c1011h15,S4c1011h16,S4c1012h13,S4c1013h10,S4c1014h07,S4c1014h11,S4aH5,S4b1004h16,S4b1006h12,S4c1009h12,S4c1010h11,S4c1011h10,S4c1012h17,S4c1014h14,S4b1005h14,S4c1008h10,S4c1011h18,S4c1012h15,S4c1014h15,S4c1014h16,S4b1003h16,S4b1004h14,S4b1006h11,S4b1006h15,S4c1010h15,S4c1010h18,S4c1012h18,S5aH4,S3aH5,S4b1001h07,S4b1002h07,S4b1003h08,S4b1003h12,S4b1003h14,S4b1004h10,S4b1004h12,S4b1005h08,S4c1010h07,S4c1012h08,S4c1012h10,S5aH3,S3aH4,S4aH3,S4aH4,S4b1001h12,S4b1003h10,S4b1003h18,S4b1006h10,S4c1008h16,S4c1009h08,S4c1012h11,S4c1013h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3701,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277C9264-58FF-43B7-9627-17549212FB79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2619C5-16C1-48B8-88C7-72A90D20F7FF}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6521,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7B27F8-55D8-45E6-AEDC-9864828E1E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E8546C-1F18-4EAE-8BCE-EED564CD60B1}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6600,10 +6600,10 @@
         <v>809</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N4">
-        <v>0.1270970394736842</v>
+        <v>0.1870888157894737</v>
       </c>
       <c r="O4" t="s">
         <v>820</v>
@@ -6635,10 +6635,10 @@
         <v>809</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.18708881578947367</v>
+        <v>0.11426809210526317</v>
       </c>
       <c r="O5" t="s">
         <v>820</v>
@@ -6670,10 +6670,10 @@
         <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.40172697368421045</v>
+        <v>0.36981907894736848</v>
       </c>
       <c r="O6" t="s">
         <v>820</v>
@@ -6705,10 +6705,10 @@
         <v>809</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.11426809210526315</v>
+        <v>0.40172697368421056</v>
       </c>
       <c r="O7" t="s">
         <v>820</v>
@@ -6740,10 +6740,10 @@
         <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.36981907894736832</v>
+        <v>0.12709703947368423</v>
       </c>
       <c r="O8" t="s">
         <v>820</v>
@@ -16401,7 +16401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A69229-E76C-48DB-B8E5-0620ECDE99E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A500E7A-E7B3-4648-A5C5-A2DDAA0B5793}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
